--- a/test_registrering/excel/test.xlsx
+++ b/test_registrering/excel/test.xlsx
@@ -403,7 +403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -590,6 +590,26 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>27.01.2021</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>REA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_registrering/excel/test.xlsx
+++ b/test_registrering/excel/test.xlsx
@@ -1,43 +1,225 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna Stray Rongve\Google Drive\Enkeltpersonsforetak\Regnskap\Fakturagenerator\test_registrering\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4D2E3C-4ACD-4F81-9D6F-DDD8A1B4570F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="30870" yWindow="3555" windowWidth="14400" windowHeight="7815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeregisrering" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hour_register" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="5" r:id="rId2"/>
+    <sheet name="2" sheetId="7" r:id="rId3"/>
+    <sheet name="Students" sheetId="3" r:id="rId4"/>
+    <sheet name="Costumers" sheetId="4" r:id="rId5"/>
+    <sheet name="Company" sheetId="2" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Hilde</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>rgi</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>hthe</t>
+  </si>
+  <si>
+    <t>24.01.2021</t>
+  </si>
+  <si>
+    <t>REA</t>
+  </si>
+  <si>
+    <t>27.01.2021</t>
+  </si>
+  <si>
+    <t>Anna Stray Rongve</t>
+  </si>
+  <si>
+    <t>Hafslundveien 8</t>
+  </si>
+  <si>
+    <t>0373 Oslo</t>
+  </si>
+  <si>
+    <t>anna.stray.rongve@gmail.com</t>
+  </si>
+  <si>
+    <t>93649449</t>
+  </si>
+  <si>
+    <t>1506.42.37524</t>
+  </si>
+  <si>
+    <t>Anette Evensen</t>
+  </si>
+  <si>
+    <t>anetteengerevensen@gmail.com</t>
+  </si>
+  <si>
+    <t>Realfagspesialisten</t>
+  </si>
+  <si>
+    <t>Kikkutveien 4A</t>
+  </si>
+  <si>
+    <t>0491 Oslo</t>
+  </si>
+  <si>
+    <t>info@realfagspesialisten.com</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Adress</t>
+  </si>
+  <si>
+    <t>Postalcode</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Account_number</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Costumer</t>
+  </si>
+  <si>
+    <t>Orgno</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Hourly_rate</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Netto</t>
+  </si>
+  <si>
+    <t>MVA</t>
+  </si>
+  <si>
+    <t>MVA-pris</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Undervising</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
-      <b val="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,38 +249,57 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -398,219 +599,509 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="11.453125" customWidth="1" min="2" max="2"/>
-    <col width="13.08984375" customWidth="1" min="3" max="3"/>
-    <col width="9.90625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="17.7265625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Navn</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Timer</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>Dato</t>
-        </is>
-      </c>
-      <c r="D1" s="7" t="inlineStr">
-        <is>
-          <t>Kunde</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Anna</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Hilde</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>rgi</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>hthe</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Anna</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>24.01.2021</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>REA</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Anna</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>24.01.2021</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>REA</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Anna</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>24.01.2021</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>REA</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
         <v>4.3</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Anna</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>24.01.2021</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>REA</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Anna</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>24.01.2021</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>REA</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
         <v>4</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Anna</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>27.01.2021</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>REA</t>
-        </is>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BD4802-D8D7-4DFC-AD49-9342B804C011}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2">SUMPRODUCT((MONTH(hour_register!$C$2:$C$1001)=MONTH(1))*(hour_register!$B$2:$B$1001))</f>
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>247.5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>B2*C2</f>
+        <v>3465</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>E2+G2</f>
+        <v>3465</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E101A67-FF19-4B49-BCE2-732349B93EA3}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2">SUMPRODUCT((MONTH(hour_register!$C$2:$C$1001)=MONTH(hour_register!C2&amp;2))*(hour_register!$B$2:$B$1001))</f>
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>247.5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>B2*C2</f>
+        <v>3465</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>E2+G2</f>
+        <v>3465</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA0AAA5-3F77-4387-A206-3AFDA3DF0199}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>95338955</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A9D03BDB-B774-478A-99AD-38A94F565E6D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF65E71A-106C-4596-A5DD-DB20503D05E9}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B47113-3865-4936-A7A3-021E9D2BD7B0}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>924881682</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_registrering/excel/test.xlsx
+++ b/test_registrering/excel/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna Stray Rongve\Google Drive\Enkeltpersonsforetak\Regnskap\Fakturagenerator\test_registrering\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4D2E3C-4ACD-4F81-9D6F-DDD8A1B4570F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D964B9C2-D115-4AAB-BDBA-62D298E077AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30870" yWindow="3555" windowWidth="14400" windowHeight="7815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2170" yWindow="1780" windowWidth="14420" windowHeight="7820" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hour_register" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Anna</t>
   </si>
@@ -176,9 +176,6 @@
     <t>MVA</t>
   </si>
   <si>
-    <t>MVA-pris</t>
-  </si>
-  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -186,6 +183,12 @@
   </si>
   <si>
     <t>Undervising</t>
+  </si>
+  <si>
+    <t>MVA_cost</t>
+  </si>
+  <si>
+    <t>Kundenummer</t>
   </si>
 </sst>
 </file>
@@ -781,7 +784,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -806,21 +809,21 @@
         <v>38</v>
       </c>
       <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" t="s">
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">SUMPRODUCT((MONTH(hour_register!$C$2:$C$1001)=MONTH(1))*(hour_register!$B$2:$B$1001))</f>
@@ -849,6 +852,10 @@
       </c>
       <c r="I2" s="3">
         <v>44228</v>
+      </c>
+      <c r="J2">
+        <f>H2</f>
+        <v>3465</v>
       </c>
     </row>
   </sheetData>
@@ -860,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E101A67-FF19-4B49-BCE2-732349B93EA3}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -886,21 +893,21 @@
         <v>38</v>
       </c>
       <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" t="s">
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">SUMPRODUCT((MONTH(hour_register!$C$2:$C$1001)=MONTH(hour_register!C2&amp;2))*(hour_register!$B$2:$B$1001))</f>
@@ -929,6 +936,10 @@
       </c>
       <c r="I2" s="3">
         <v>44228</v>
+      </c>
+      <c r="J2" s="2">
+        <f>H2</f>
+        <v>3465</v>
       </c>
     </row>
   </sheetData>
@@ -983,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF65E71A-106C-4596-A5DD-DB20503D05E9}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,6 +1005,7 @@
     <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1012,7 +1024,9 @@
       <c r="F1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
@@ -1029,6 +1043,10 @@
       </c>
       <c r="E2" t="s">
         <v>21</v>
+      </c>
+      <c r="G2">
+        <f>A2+1</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
